--- a/Caixa Acamp.xlsx
+++ b/Caixa Acamp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e35e6eceb5702d4e/IEBI/Sistemas/AcampBlackTeen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="8_{30BAC8CF-0EA2-4BFF-AB06-4B74287ED76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9278EAD-016C-4A79-AF9F-2D990E00EE16}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="8_{30BAC8CF-0EA2-4BFF-AB06-4B74287ED76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDD3012C-BEF5-4CC9-96C6-5B103D22FDD3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{9715924B-C3A6-4F0A-BD95-27BF535064DE}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="347">
   <si>
     <t>Valor</t>
   </si>
@@ -768,9 +768,6 @@
     <t>Entradas</t>
   </si>
   <si>
-    <t>Saídas</t>
-  </si>
-  <si>
     <t>Valor Missão Resgate (R$ 180)</t>
   </si>
   <si>
@@ -916,14 +913,183 @@
   </si>
   <si>
     <t>Checar Pagamento</t>
+  </si>
+  <si>
+    <t>Pix enviado: "Cp :22896431-Davi Martimiani Pascarelli"</t>
+  </si>
+  <si>
+    <t>Pix enviado: "Cp :37880206-Hallysson Pereira de Freitas 03069335357"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :18236120-Saymon Magalhaes de Lima Santos"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "00019 334301726 DAVI MOURA"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :00360305-GLORIA DE LOURDES DE MORAES MOURA"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :17192451-NICOLE LAIS DA SILVA CARDOSO"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :18236120-Ana Cecilia Vieira Dantas Alves"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "00019 380280434 PABLO SILVA"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :90400888-MARIA EDUARDA DE FIGUEIREDO PESSOA"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :60746948-FERNANDO FIRMINO DE MACEDO SEGUNDO"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :18236120-Daylana Ellen Ferreira dos Santos"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :60746948-ADIEL FERRER FREIRE"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :60746948-LORENNA DE MENEZES"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :18236120-Thiago Araujo Cavalcante"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :18236120-Djair Vicente Ferreira Filho"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "00019 158701488 JULIA MARQUES"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :18236120-Silvia Mancini Viesi"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :90400888-ANA MARIA MORAES FONSECA DE SOUZA"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :10573521-Luciellen Schwambach Fernandes"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :18236120-Renan Jose da Costa Oliveira"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :18236120-Leonardo Alves de Sousa Medeiros"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :60701190-JOSE JERONIMO LEITE NETO"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :18236120-Elany Cristina de Oliveira Lima"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :60701190-GRACIELLE PEREIRA BARBOSA"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :18236120-Maria Edilza de Souza"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :00360305-AILTON ALVES DINIZ NETO"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :00360305-JOSIANE MARIA OLIVEIRA DE SOUZA"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :00360305-ERICKSON ANDRE ROSAL MADRUGA"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "00019 309426545 MIGUEL SOUZA"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :00360305-ELIZEU DOS SANTOS"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "00019 276225961 PEDRO VITOR"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :90400888-LUCIOLA DA SILVA TEIXEIRA SANTOS"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :18236120-cristiane ferreira vicente"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :18236120-Marcos Paulo Leandro Minervino"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :18236120-Maurivan Celestino de Oliveira Silva Junior"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :00360305-MARIA LUCIENE FERNANDES DE MOURA"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :18236120-MARIANA LETICIA JANUARIO MAMEDE 07793672437"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :00000000-LIVIA C RODRIGUES CANDIDO"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :10573521-John Lucas Schwambach Araujo"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :60746948-KELIANA LOURENCO GOMES RODRIGUES"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :60889128-Pedro Jorge Siqueira Campos Gomes"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :00000000-MARIA A ABILIO MAMEDE"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :00000000-IGOR MACIEL MARINHO"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :18236120-Thayane Rihanna Anselmo do Nascimento"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "00019 175929041 ANDREI LEAL"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :60746948-JOSE CARLOS DE SOUZA NOBREGA"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :17192451-Emanuelle Rosa de Franca"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :18236120-Andrei William Bezerra Leal"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :18236120-Sandra Valeria Santos Pessoa"</t>
+  </si>
+  <si>
+    <t>Pix enviado: "Cp :60746948-Valquiria de Amorim Rodrigues Uchoa"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :00000000-ANA CLARA PORTELA TAVARES"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :18236120-Joyce Monteiro"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :00360305-JOHN KELSON FLORENCIO DOS SANTOS"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :10573521-Kellybeth Fidelis de Araujo Onofre"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :00360305-PEDRO HENRIQUE LEANDRO CARNEIRO DE LIMA"</t>
+  </si>
+  <si>
+    <t>Saídas (Sem Pgto do Local)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1192,7 +1358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1264,6 +1430,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1294,7 +1462,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1316,6 +1483,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1635,10 +1806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63638E3-371E-451B-B0B2-3C09A3D60615}">
-  <dimension ref="A2:G356"/>
+  <dimension ref="A2:G397"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A386" workbookViewId="0">
+      <selection activeCell="A398" sqref="A398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,31 +1822,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="45" t="s">
-        <v>291</v>
+      <c r="G2" s="35" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s">
         <v>231</v>
@@ -1684,7 +1855,7 @@
         <v>45731</v>
       </c>
       <c r="D3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E3" s="2">
         <v>-400</v>
@@ -1696,7 +1867,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B4" t="str">
         <f>IF(E4&gt;0,"Entrada","Saída")</f>
@@ -1706,7 +1877,7 @@
         <v>45731</v>
       </c>
       <c r="D4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E4" s="2">
         <v>1.72</v>
@@ -7596,7 +7767,7 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="str">
-        <f t="shared" ref="A261:A324" si="8">IF(E261&gt;180,"Inscrição","Rifa")</f>
+        <f t="shared" ref="A261:A298" si="8">IF(E261&gt;180,"Inscrição","Rifa")</f>
         <v>Rifa</v>
       </c>
       <c r="B261" t="str">
@@ -7623,7 +7794,7 @@
         <v>Rifa</v>
       </c>
       <c r="B262" t="str">
-        <f t="shared" ref="B262:B325" si="9">IF(E262&gt;0,"Entrada","Saída")</f>
+        <f t="shared" ref="B262:B298" si="9">IF(E262&gt;0,"Entrada","Saída")</f>
         <v>Entrada</v>
       </c>
       <c r="C262" s="1">
@@ -7699,7 +7870,7 @@
         <v>45750</v>
       </c>
       <c r="D265" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E265" s="2">
         <v>40</v>
@@ -7722,7 +7893,7 @@
         <v>45750</v>
       </c>
       <c r="D266" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E266" s="2">
         <v>10</v>
@@ -7745,7 +7916,7 @@
         <v>45750</v>
       </c>
       <c r="D267" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E267" s="2">
         <v>30</v>
@@ -7768,7 +7939,7 @@
         <v>45750</v>
       </c>
       <c r="D268" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E268" s="2">
         <v>10</v>
@@ -7791,7 +7962,7 @@
         <v>45750</v>
       </c>
       <c r="D269" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E269" s="2">
         <v>10</v>
@@ -7837,7 +8008,7 @@
         <v>45750</v>
       </c>
       <c r="D271" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E271" s="2">
         <v>10</v>
@@ -7860,7 +8031,7 @@
         <v>45750</v>
       </c>
       <c r="D272" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E272" s="2">
         <v>10</v>
@@ -7906,7 +8077,7 @@
         <v>45750</v>
       </c>
       <c r="D274" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E274" s="2">
         <v>10</v>
@@ -7952,7 +8123,7 @@
         <v>45750</v>
       </c>
       <c r="D276" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E276" s="2">
         <v>10</v>
@@ -7975,7 +8146,7 @@
         <v>45750</v>
       </c>
       <c r="D277" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E277" s="2">
         <v>10</v>
@@ -7998,7 +8169,7 @@
         <v>45750</v>
       </c>
       <c r="D278" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E278" s="2">
         <v>10</v>
@@ -8021,7 +8192,7 @@
         <v>45750</v>
       </c>
       <c r="D279" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E279" s="2">
         <v>500</v>
@@ -8044,7 +8215,7 @@
         <v>45750</v>
       </c>
       <c r="D280" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E280" s="2">
         <v>275.52999999999997</v>
@@ -8067,7 +8238,7 @@
         <v>45750</v>
       </c>
       <c r="D281" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E281" s="2">
         <v>250</v>
@@ -8090,7 +8261,7 @@
         <v>45750</v>
       </c>
       <c r="D282" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E282" s="2">
         <v>180</v>
@@ -8113,7 +8284,7 @@
         <v>45750</v>
       </c>
       <c r="D283" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E283" s="2">
         <v>20</v>
@@ -8136,7 +8307,7 @@
         <v>45750</v>
       </c>
       <c r="D284" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E284" s="2">
         <v>50</v>
@@ -8159,7 +8330,7 @@
         <v>45750</v>
       </c>
       <c r="D285" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E285" s="2">
         <v>80</v>
@@ -8228,7 +8399,7 @@
         <v>45750</v>
       </c>
       <c r="D288" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E288" s="2">
         <v>10</v>
@@ -8251,7 +8422,7 @@
         <v>45750</v>
       </c>
       <c r="D289" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E289" s="2">
         <v>10</v>
@@ -8274,7 +8445,7 @@
         <v>45750</v>
       </c>
       <c r="D290" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E290" s="2">
         <v>20</v>
@@ -8470,740 +8641,2188 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="A299:A362" si="10">IF(E299&gt;180,"Inscrição","Rifa")</f>
         <v>Rifa</v>
       </c>
       <c r="B299" t="str">
-        <f t="shared" si="9"/>
-        <v>Entrada</v>
+        <f t="shared" ref="B299:B362" si="11">IF(E299&gt;0,"Entrada","Saída")</f>
+        <v>Saída</v>
       </c>
       <c r="C299" s="1">
         <v>45751</v>
       </c>
       <c r="D299" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E299" s="2">
-        <v>20</v>
+        <v>-40</v>
       </c>
       <c r="F299">
-        <v>9417.15</v>
+        <v>9357.15</v>
       </c>
       <c r="G299" s="2"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A300" t="str">
-        <f t="shared" si="8"/>
-        <v>Rifa</v>
+      <c r="A300" t="s">
+        <v>232</v>
       </c>
       <c r="B300" t="str">
-        <f t="shared" si="9"/>
-        <v>Entrada</v>
+        <f t="shared" si="11"/>
+        <v>Saída</v>
       </c>
       <c r="C300" s="1">
         <v>45751</v>
       </c>
       <c r="D300" t="s">
-        <v>168</v>
+        <v>292</v>
       </c>
       <c r="E300" s="2">
-        <v>20</v>
+        <v>-100</v>
       </c>
       <c r="F300">
-        <v>9437.15</v>
+        <v>9257.15</v>
       </c>
       <c r="G300" s="2"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>232</v>
+      <c r="A301" t="str">
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
       </c>
       <c r="B301" t="str">
-        <f t="shared" si="9"/>
-        <v>Saída</v>
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
       </c>
       <c r="C301" s="1">
         <v>45751</v>
       </c>
       <c r="D301" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="E301" s="2">
-        <v>-163.92</v>
+        <v>10</v>
       </c>
       <c r="F301">
-        <v>9273.23</v>
+        <v>9267.15</v>
       </c>
       <c r="G301" s="2"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Rifa</v>
       </c>
       <c r="B302" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Entrada</v>
       </c>
       <c r="C302" s="1">
         <v>45751</v>
       </c>
       <c r="D302" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="E302" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F302">
-        <v>9313.23</v>
+        <v>9287.15</v>
       </c>
       <c r="G302" s="2"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="str">
-        <f t="shared" si="8"/>
-        <v>Inscrição</v>
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
       </c>
       <c r="B303" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Entrada</v>
       </c>
       <c r="C303" s="1">
         <v>45751</v>
       </c>
       <c r="D303" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="E303" s="2">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="F303">
-        <v>9563.23</v>
+        <v>9307.15</v>
       </c>
       <c r="G303" s="2"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A304" t="str">
-        <f t="shared" si="8"/>
-        <v>Rifa</v>
+      <c r="A304" t="s">
+        <v>232</v>
       </c>
       <c r="B304" t="str">
-        <f t="shared" si="9"/>
-        <v>Entrada</v>
+        <f t="shared" si="11"/>
+        <v>Saída</v>
       </c>
       <c r="C304" s="1">
         <v>45751</v>
       </c>
       <c r="D304" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="E304" s="2">
-        <v>50</v>
+        <v>-163.92</v>
       </c>
       <c r="F304">
-        <v>9613.23</v>
+        <v>9143.23</v>
       </c>
       <c r="G304" s="2"/>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Rifa</v>
       </c>
       <c r="B305" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Entrada</v>
       </c>
       <c r="C305" s="1">
         <v>45751</v>
       </c>
       <c r="D305" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E305" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F305">
-        <v>9633.23</v>
+        <v>9183.23</v>
       </c>
       <c r="G305" s="2"/>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="str">
-        <f t="shared" si="8"/>
-        <v>Rifa</v>
+        <f t="shared" si="10"/>
+        <v>Inscrição</v>
       </c>
       <c r="B306" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Entrada</v>
       </c>
       <c r="C306" s="1">
         <v>45751</v>
       </c>
       <c r="D306" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E306" s="2">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="F306">
-        <v>9663.23</v>
+        <v>9433.23</v>
       </c>
       <c r="G306" s="2"/>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="str">
-        <f t="shared" si="8"/>
-        <v>Inscrição</v>
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
       </c>
       <c r="B307" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Entrada</v>
       </c>
       <c r="C307" s="1">
         <v>45751</v>
       </c>
       <c r="D307" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E307" s="2">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="F307">
-        <v>9913.23</v>
+        <v>9483.23</v>
       </c>
       <c r="G307" s="2"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Rifa</v>
       </c>
       <c r="B308" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Entrada</v>
       </c>
       <c r="C308" s="1">
         <v>45751</v>
       </c>
       <c r="D308" t="s">
-        <v>15</v>
+        <v>265</v>
       </c>
       <c r="E308" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F308">
-        <v>9923.23</v>
+        <v>9503.23</v>
       </c>
       <c r="G308" s="2"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Rifa</v>
       </c>
       <c r="B309" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Entrada</v>
       </c>
       <c r="C309" s="1">
         <v>45751</v>
       </c>
       <c r="D309" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E309" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F309">
-        <v>9933.23</v>
+        <v>9533.23</v>
       </c>
       <c r="G309" s="2"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="str">
-        <f t="shared" si="8"/>
-        <v>Rifa</v>
+        <f t="shared" si="10"/>
+        <v>Inscrição</v>
       </c>
       <c r="B310" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Entrada</v>
       </c>
       <c r="C310" s="1">
         <v>45751</v>
       </c>
       <c r="D310" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E310" s="2">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="F310">
-        <v>9963.23</v>
+        <v>9783.23</v>
       </c>
       <c r="G310" s="2"/>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Rifa</v>
       </c>
       <c r="B311" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Entrada</v>
       </c>
       <c r="C311" s="1">
         <v>45751</v>
       </c>
       <c r="D311" t="s">
-        <v>270</v>
+        <v>15</v>
       </c>
       <c r="E311" s="2">
         <v>10</v>
       </c>
       <c r="F311">
-        <v>9973.23</v>
+        <v>9793.23</v>
       </c>
       <c r="G311" s="2"/>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Rifa</v>
       </c>
       <c r="B312" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Entrada</v>
       </c>
       <c r="C312" s="1">
         <v>45751</v>
       </c>
       <c r="D312" t="s">
-        <v>15</v>
+        <v>261</v>
       </c>
       <c r="E312" s="2">
         <v>10</v>
       </c>
       <c r="F312">
-        <v>9983.23</v>
+        <v>9803.23</v>
       </c>
       <c r="G312" s="2"/>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Rifa</v>
       </c>
       <c r="B313" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Entrada</v>
       </c>
       <c r="C313" s="1">
         <v>45751</v>
       </c>
       <c r="D313" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E313" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F313">
-        <v>9993.23</v>
+        <v>9833.23</v>
       </c>
       <c r="G313" s="2"/>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Rifa</v>
       </c>
       <c r="B314" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Entrada</v>
       </c>
       <c r="C314" s="1">
         <v>45751</v>
       </c>
       <c r="D314" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E314" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F314">
-        <v>10023.23</v>
+        <v>9843.23</v>
       </c>
       <c r="G314" s="2"/>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="str">
-        <f t="shared" si="8"/>
-        <v>Inscrição</v>
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
       </c>
       <c r="B315" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Entrada</v>
       </c>
       <c r="C315" s="1">
         <v>45751</v>
       </c>
       <c r="D315" t="s">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c r="E315" s="2">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="F315">
-        <v>10273.23</v>
+        <v>9853.23</v>
       </c>
       <c r="G315" s="2"/>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Rifa</v>
       </c>
       <c r="B316" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Entrada</v>
       </c>
       <c r="C316" s="1">
         <v>45751</v>
       </c>
       <c r="D316" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E316" s="2">
         <v>10</v>
       </c>
       <c r="F316">
-        <v>10283.23</v>
+        <v>9863.23</v>
       </c>
       <c r="G316" s="2"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Rifa</v>
       </c>
       <c r="B317" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Entrada</v>
       </c>
       <c r="C317" s="1">
         <v>45751</v>
       </c>
       <c r="D317" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E317" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F317">
-        <v>10293.23</v>
+        <v>9893.23</v>
       </c>
       <c r="G317" s="2"/>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Inscrição</v>
       </c>
       <c r="B318" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Entrada</v>
       </c>
       <c r="C318" s="1">
         <v>45751</v>
       </c>
       <c r="D318" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E318" s="2">
         <v>250</v>
       </c>
       <c r="F318">
-        <v>10543.23</v>
+        <v>10143.23</v>
       </c>
       <c r="G318" s="2"/>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Rifa</v>
       </c>
       <c r="B319" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Entrada</v>
       </c>
       <c r="C319" s="1">
         <v>45751</v>
       </c>
       <c r="D319" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E319" s="2">
         <v>10</v>
       </c>
       <c r="F319">
-        <v>10553.23</v>
+        <v>10153.23</v>
       </c>
       <c r="G319" s="2"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Rifa</v>
       </c>
       <c r="B320" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Entrada</v>
       </c>
       <c r="C320" s="1">
         <v>45751</v>
       </c>
       <c r="D320" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E320" s="2">
         <v>10</v>
       </c>
       <c r="F320">
-        <v>10563.23</v>
+        <v>10163.23</v>
       </c>
       <c r="G320" s="2"/>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="str">
-        <f t="shared" si="8"/>
-        <v>Rifa</v>
+        <f t="shared" si="10"/>
+        <v>Inscrição</v>
       </c>
       <c r="B321" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Entrada</v>
       </c>
       <c r="C321" s="1">
         <v>45751</v>
       </c>
       <c r="D321" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E321" s="2">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="F321">
-        <v>10573.23</v>
+        <v>10413.23</v>
       </c>
       <c r="G321" s="2"/>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Rifa</v>
       </c>
       <c r="B322" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Entrada</v>
       </c>
       <c r="C322" s="1">
         <v>45751</v>
       </c>
       <c r="D322" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E322" s="2">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="F322">
-        <v>10683.23</v>
+        <v>10423.23</v>
       </c>
       <c r="G322" s="2"/>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Rifa</v>
       </c>
       <c r="B323" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Entrada</v>
       </c>
       <c r="C323" s="1">
         <v>45751</v>
       </c>
       <c r="D323" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E323" s="2">
         <v>10</v>
       </c>
       <c r="F323">
-        <v>10693.23</v>
+        <v>10433.23</v>
       </c>
       <c r="G323" s="2"/>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Rifa</v>
       </c>
       <c r="B324" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Entrada</v>
       </c>
       <c r="C324" s="1">
         <v>45751</v>
       </c>
       <c r="D324" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E324" s="2">
         <v>10</v>
       </c>
       <c r="F324">
-        <v>10703.23</v>
+        <v>10443.23</v>
       </c>
       <c r="G324" s="2"/>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="str">
-        <f t="shared" ref="A325:A326" si="10">IF(E325&gt;180,"Inscrição","Rifa")</f>
-        <v>Inscrição</v>
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
       </c>
       <c r="B325" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Entrada</v>
       </c>
       <c r="C325" s="1">
         <v>45751</v>
       </c>
       <c r="D325" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E325" s="2">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="F325">
-        <v>10953.23</v>
+        <v>10553.23</v>
       </c>
       <c r="G325" s="2"/>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="str">
         <f t="shared" si="10"/>
-        <v>Inscrição</v>
+        <v>Rifa</v>
       </c>
       <c r="B326" t="str">
-        <f t="shared" ref="B326" si="11">IF(E326&gt;0,"Entrada","Saída")</f>
+        <f t="shared" si="11"/>
         <v>Entrada</v>
       </c>
       <c r="C326" s="1">
         <v>45751</v>
       </c>
       <c r="D326" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E326" s="2">
+        <v>10</v>
+      </c>
+      <c r="F326">
+        <v>10563.23</v>
+      </c>
+      <c r="G326" s="2"/>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" t="str">
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B327" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C327" s="1">
+        <v>45751</v>
+      </c>
+      <c r="D327" t="s">
+        <v>281</v>
+      </c>
+      <c r="E327" s="2">
+        <v>10</v>
+      </c>
+      <c r="F327">
+        <v>10573.23</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" t="str">
+        <f t="shared" si="10"/>
+        <v>Inscrição</v>
+      </c>
+      <c r="B328" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C328" s="1">
+        <v>45751</v>
+      </c>
+      <c r="D328" t="s">
+        <v>282</v>
+      </c>
+      <c r="E328" s="2">
         <v>250</v>
       </c>
-      <c r="F326">
-        <v>11203.23</v>
-      </c>
-      <c r="G326" s="2"/>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C327" s="1"/>
-      <c r="E327" s="2"/>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C328" s="1"/>
-      <c r="E328" s="2"/>
+      <c r="F328">
+        <v>10823.23</v>
+      </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C329" s="1"/>
-      <c r="E329" s="2"/>
+      <c r="A329" t="str">
+        <f t="shared" si="10"/>
+        <v>Inscrição</v>
+      </c>
+      <c r="B329" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C329" s="1">
+        <v>45751</v>
+      </c>
+      <c r="D329" t="s">
+        <v>283</v>
+      </c>
+      <c r="E329" s="2">
+        <v>250</v>
+      </c>
+      <c r="F329">
+        <v>11073.23</v>
+      </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C330" s="1"/>
-      <c r="E330" s="2"/>
+      <c r="A330" t="str">
+        <f t="shared" si="10"/>
+        <v>Inscrição</v>
+      </c>
+      <c r="B330" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C330" s="1">
+        <v>45752</v>
+      </c>
+      <c r="D330" t="s">
+        <v>72</v>
+      </c>
+      <c r="E330" s="2">
+        <v>250</v>
+      </c>
+      <c r="F330">
+        <v>11323.23</v>
+      </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E331" s="2"/>
+      <c r="A331" t="str">
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B331" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C331" s="1">
+        <v>45752</v>
+      </c>
+      <c r="D331" t="s">
+        <v>294</v>
+      </c>
+      <c r="E331" s="2">
+        <v>150</v>
+      </c>
+      <c r="F331">
+        <v>11473.23</v>
+      </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E332" s="2"/>
+      <c r="A332" t="str">
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B332" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C332" s="1">
+        <v>45752</v>
+      </c>
+      <c r="D332" t="s">
+        <v>295</v>
+      </c>
+      <c r="E332" s="2">
+        <v>20</v>
+      </c>
+      <c r="F332">
+        <v>11493.23</v>
+      </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E333" s="2"/>
+      <c r="A333" t="str">
+        <f t="shared" si="10"/>
+        <v>Inscrição</v>
+      </c>
+      <c r="B333" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C333" s="1">
+        <v>45752</v>
+      </c>
+      <c r="D333" t="s">
+        <v>296</v>
+      </c>
+      <c r="E333" s="2">
+        <v>250</v>
+      </c>
+      <c r="F333">
+        <v>11743.23</v>
+      </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E334" s="2"/>
+      <c r="A334" t="str">
+        <f t="shared" si="10"/>
+        <v>Inscrição</v>
+      </c>
+      <c r="B334" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C334" s="1">
+        <v>45752</v>
+      </c>
+      <c r="D334" t="s">
+        <v>297</v>
+      </c>
+      <c r="E334" s="2">
+        <v>250.01</v>
+      </c>
+      <c r="F334">
+        <v>11993.24</v>
+      </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E335" s="2"/>
+      <c r="A335" t="str">
+        <f t="shared" si="10"/>
+        <v>Inscrição</v>
+      </c>
+      <c r="B335" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C335" s="1">
+        <v>45752</v>
+      </c>
+      <c r="D335" t="s">
+        <v>297</v>
+      </c>
+      <c r="E335" s="2">
+        <v>250</v>
+      </c>
+      <c r="F335">
+        <v>12243.24</v>
+      </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E336" s="2"/>
-    </row>
-    <row r="337" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E337" s="2"/>
-    </row>
-    <row r="338" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E338" s="2"/>
-    </row>
-    <row r="339" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E339" s="2"/>
-    </row>
-    <row r="340" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E340" s="2"/>
-    </row>
-    <row r="341" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E341" s="2"/>
-    </row>
-    <row r="342" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E342" s="2"/>
-    </row>
-    <row r="343" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E343" s="2"/>
-    </row>
-    <row r="344" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E344" s="2"/>
-    </row>
-    <row r="345" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E345" s="2"/>
-    </row>
-    <row r="346" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E346" s="2"/>
-    </row>
-    <row r="347" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E347" s="2"/>
-    </row>
-    <row r="348" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E348" s="2"/>
-    </row>
-    <row r="349" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E349" s="2"/>
-    </row>
-    <row r="350" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E350" s="2"/>
-    </row>
-    <row r="351" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E351" s="2"/>
-    </row>
-    <row r="352" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E352" s="2"/>
-    </row>
-    <row r="353" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E353" s="2"/>
-    </row>
-    <row r="354" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E354" s="2"/>
-    </row>
-    <row r="355" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E355" s="2"/>
-    </row>
-    <row r="356" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E356" s="2"/>
+      <c r="A336" t="str">
+        <f t="shared" si="10"/>
+        <v>Inscrição</v>
+      </c>
+      <c r="B336" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C336" s="1">
+        <v>45752</v>
+      </c>
+      <c r="D336" t="s">
+        <v>64</v>
+      </c>
+      <c r="E336" s="2">
+        <v>250</v>
+      </c>
+      <c r="F336">
+        <v>12493.24</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" t="str">
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B337" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C337" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D337" t="s">
+        <v>298</v>
+      </c>
+      <c r="E337" s="2">
+        <v>130</v>
+      </c>
+      <c r="F337">
+        <v>12623.24</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" t="str">
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B338" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C338" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D338" t="s">
+        <v>299</v>
+      </c>
+      <c r="E338" s="2">
+        <v>10</v>
+      </c>
+      <c r="F338">
+        <v>12633.24</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" t="str">
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B339" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C339" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D339" t="s">
+        <v>5</v>
+      </c>
+      <c r="E339" s="2">
+        <v>10</v>
+      </c>
+      <c r="F339">
+        <v>12643.24</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" t="str">
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B340" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C340" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D340" t="s">
+        <v>300</v>
+      </c>
+      <c r="E340" s="2">
+        <v>20</v>
+      </c>
+      <c r="F340">
+        <v>12663.24</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" t="str">
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B341" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C341" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D341" t="s">
+        <v>301</v>
+      </c>
+      <c r="E341" s="2">
+        <v>20</v>
+      </c>
+      <c r="F341">
+        <v>12683.24</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" t="str">
+        <f t="shared" si="10"/>
+        <v>Inscrição</v>
+      </c>
+      <c r="B342" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C342" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D342" t="s">
+        <v>66</v>
+      </c>
+      <c r="E342" s="2">
+        <v>240</v>
+      </c>
+      <c r="F342">
+        <v>12923.24</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" t="str">
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B343" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C343" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D343" t="s">
+        <v>302</v>
+      </c>
+      <c r="E343" s="2">
+        <v>50</v>
+      </c>
+      <c r="F343">
+        <v>12973.24</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" t="str">
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B344" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C344" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D344" t="s">
+        <v>147</v>
+      </c>
+      <c r="E344" s="2">
+        <v>170</v>
+      </c>
+      <c r="F344">
+        <v>13143.24</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" t="str">
+        <f t="shared" si="10"/>
+        <v>Inscrição</v>
+      </c>
+      <c r="B345" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C345" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D345" t="s">
+        <v>253</v>
+      </c>
+      <c r="E345" s="2">
+        <v>207.7</v>
+      </c>
+      <c r="F345">
+        <v>13350.94</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" t="str">
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B346" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C346" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D346" t="s">
+        <v>303</v>
+      </c>
+      <c r="E346" s="2">
+        <v>10</v>
+      </c>
+      <c r="F346">
+        <v>13360.94</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" t="str">
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B347" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C347" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D347" t="s">
+        <v>304</v>
+      </c>
+      <c r="E347" s="2">
+        <v>10</v>
+      </c>
+      <c r="F347">
+        <v>13370.94</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" t="str">
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B348" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C348" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D348" t="s">
+        <v>305</v>
+      </c>
+      <c r="E348" s="2">
+        <v>10</v>
+      </c>
+      <c r="F348">
+        <v>13380.94</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" t="str">
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B349" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C349" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D349" t="s">
+        <v>306</v>
+      </c>
+      <c r="E349" s="2">
+        <v>10</v>
+      </c>
+      <c r="F349">
+        <v>13390.94</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" t="str">
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B350" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C350" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D350" t="s">
+        <v>307</v>
+      </c>
+      <c r="E350" s="2">
+        <v>10</v>
+      </c>
+      <c r="F350">
+        <v>13400.94</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" t="str">
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B351" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C351" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D351" t="s">
+        <v>308</v>
+      </c>
+      <c r="E351" s="2">
+        <v>10</v>
+      </c>
+      <c r="F351">
+        <v>13410.94</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" t="str">
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B352" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C352" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D352" t="s">
+        <v>309</v>
+      </c>
+      <c r="E352" s="2">
+        <v>50</v>
+      </c>
+      <c r="F352">
+        <v>13460.94</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" t="str">
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B353" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C353" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D353" t="s">
+        <v>310</v>
+      </c>
+      <c r="E353" s="2">
+        <v>50</v>
+      </c>
+      <c r="F353">
+        <v>13510.94</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" t="str">
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B354" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C354" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D354" t="s">
+        <v>311</v>
+      </c>
+      <c r="E354" s="2">
+        <v>10</v>
+      </c>
+      <c r="F354">
+        <v>13520.94</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" t="str">
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B355" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C355" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D355" t="s">
+        <v>312</v>
+      </c>
+      <c r="E355" s="2">
+        <v>100</v>
+      </c>
+      <c r="F355">
+        <v>13620.94</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" t="str">
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B356" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C356" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D356" t="s">
+        <v>313</v>
+      </c>
+      <c r="E356" s="2">
+        <v>10</v>
+      </c>
+      <c r="F356">
+        <v>13630.94</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" t="str">
+        <f t="shared" si="10"/>
+        <v>Inscrição</v>
+      </c>
+      <c r="B357" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C357" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D357" t="s">
+        <v>314</v>
+      </c>
+      <c r="E357">
+        <v>300</v>
+      </c>
+      <c r="F357">
+        <v>13930.94</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" t="str">
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B358" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C358" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D358" t="s">
+        <v>102</v>
+      </c>
+      <c r="E358">
+        <v>10</v>
+      </c>
+      <c r="F358">
+        <v>13940.94</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" t="str">
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B359" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C359" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D359" t="s">
+        <v>315</v>
+      </c>
+      <c r="E359">
+        <v>50</v>
+      </c>
+      <c r="F359">
+        <v>13990.94</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" t="str">
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B360" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C360" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D360" t="s">
+        <v>316</v>
+      </c>
+      <c r="E360">
+        <v>10</v>
+      </c>
+      <c r="F360">
+        <v>14000.94</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" t="str">
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B361" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C361" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D361" t="s">
+        <v>317</v>
+      </c>
+      <c r="E361">
+        <v>10</v>
+      </c>
+      <c r="F361">
+        <v>14010.94</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" t="str">
+        <f t="shared" si="10"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B362" t="str">
+        <f t="shared" si="11"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C362" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D362" t="s">
+        <v>318</v>
+      </c>
+      <c r="E362">
+        <v>10</v>
+      </c>
+      <c r="F362">
+        <v>14020.94</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" t="str">
+        <f t="shared" ref="A363:A388" si="12">IF(E363&gt;180,"Inscrição","Rifa")</f>
+        <v>Rifa</v>
+      </c>
+      <c r="B363" t="str">
+        <f t="shared" ref="B363:B388" si="13">IF(E363&gt;0,"Entrada","Saída")</f>
+        <v>Entrada</v>
+      </c>
+      <c r="C363" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D363" t="s">
+        <v>319</v>
+      </c>
+      <c r="E363">
+        <v>10</v>
+      </c>
+      <c r="F363">
+        <v>14030.94</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" t="str">
+        <f t="shared" si="12"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B364" t="str">
+        <f t="shared" si="13"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C364" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D364" t="s">
+        <v>24</v>
+      </c>
+      <c r="E364">
+        <v>10</v>
+      </c>
+      <c r="F364">
+        <v>14040.94</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" t="str">
+        <f t="shared" si="12"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B365" t="str">
+        <f t="shared" si="13"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C365" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D365" t="s">
+        <v>320</v>
+      </c>
+      <c r="E365">
+        <v>10</v>
+      </c>
+      <c r="F365">
+        <v>14050.94</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" t="str">
+        <f t="shared" si="12"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B366" t="str">
+        <f t="shared" si="13"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C366" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D366" t="s">
+        <v>321</v>
+      </c>
+      <c r="E366">
+        <v>10</v>
+      </c>
+      <c r="F366">
+        <v>14060.94</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" t="str">
+        <f t="shared" si="12"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B367" t="str">
+        <f t="shared" si="13"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C367" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D367" t="s">
+        <v>21</v>
+      </c>
+      <c r="E367">
+        <v>10</v>
+      </c>
+      <c r="F367">
+        <v>14070.94</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" t="str">
+        <f t="shared" si="12"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B368" t="str">
+        <f t="shared" si="13"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C368" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D368" t="s">
+        <v>322</v>
+      </c>
+      <c r="E368">
+        <v>15</v>
+      </c>
+      <c r="F368">
+        <v>14085.94</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" t="str">
+        <f t="shared" si="12"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B369" t="str">
+        <f t="shared" si="13"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C369" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D369" t="s">
+        <v>323</v>
+      </c>
+      <c r="E369">
+        <v>10</v>
+      </c>
+      <c r="F369">
+        <v>14095.94</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" t="str">
+        <f t="shared" si="12"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B370" t="str">
+        <f t="shared" si="13"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C370" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D370" t="s">
+        <v>324</v>
+      </c>
+      <c r="E370">
+        <v>20</v>
+      </c>
+      <c r="F370">
+        <v>14115.94</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371" t="str">
+        <f t="shared" si="12"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B371" t="str">
+        <f t="shared" si="13"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C371" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D371" t="s">
+        <v>325</v>
+      </c>
+      <c r="E371">
+        <v>10</v>
+      </c>
+      <c r="F371">
+        <v>14125.94</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" t="str">
+        <f t="shared" si="12"/>
+        <v>Inscrição</v>
+      </c>
+      <c r="B372" t="str">
+        <f t="shared" si="13"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C372" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D372" t="s">
+        <v>326</v>
+      </c>
+      <c r="E372">
+        <v>250</v>
+      </c>
+      <c r="F372">
+        <v>14375.94</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373" t="str">
+        <f t="shared" si="12"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B373" t="str">
+        <f t="shared" si="13"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C373" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D373" t="s">
+        <v>327</v>
+      </c>
+      <c r="E373">
+        <v>10</v>
+      </c>
+      <c r="F373">
+        <v>14385.94</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" t="str">
+        <f t="shared" si="12"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B374" t="str">
+        <f t="shared" si="13"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C374" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D374" t="s">
+        <v>328</v>
+      </c>
+      <c r="E374">
+        <v>30</v>
+      </c>
+      <c r="F374">
+        <v>14415.94</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" t="str">
+        <f t="shared" si="12"/>
+        <v>Inscrição</v>
+      </c>
+      <c r="B375" t="str">
+        <f t="shared" si="13"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C375" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D375" t="s">
+        <v>329</v>
+      </c>
+      <c r="E375">
+        <v>250</v>
+      </c>
+      <c r="F375">
+        <v>14665.94</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" t="str">
+        <f t="shared" si="12"/>
+        <v>Inscrição</v>
+      </c>
+      <c r="B376" t="str">
+        <f t="shared" si="13"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C376" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D376" t="s">
+        <v>330</v>
+      </c>
+      <c r="E376">
+        <v>250</v>
+      </c>
+      <c r="F376">
+        <v>14915.94</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" t="str">
+        <f t="shared" si="12"/>
+        <v>Inscrição</v>
+      </c>
+      <c r="B377" t="str">
+        <f t="shared" si="13"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C377" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D377" t="s">
+        <v>317</v>
+      </c>
+      <c r="E377">
+        <v>250</v>
+      </c>
+      <c r="F377">
+        <v>15165.94</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" t="str">
+        <f t="shared" ref="A378:A396" si="14">IF(E378&gt;180,"Inscrição","Rifa")</f>
+        <v>Inscrição</v>
+      </c>
+      <c r="B378" t="str">
+        <f t="shared" ref="B378:B396" si="15">IF(E378&gt;0,"Entrada","Saída")</f>
+        <v>Entrada</v>
+      </c>
+      <c r="C378" s="1">
+        <v>45754</v>
+      </c>
+      <c r="D378" t="s">
+        <v>331</v>
+      </c>
+      <c r="E378">
+        <v>250</v>
+      </c>
+      <c r="F378">
+        <v>15415.94</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" t="str">
+        <f t="shared" si="14"/>
+        <v>Inscrição</v>
+      </c>
+      <c r="B379" t="str">
+        <f t="shared" si="15"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C379" s="1">
+        <v>45754</v>
+      </c>
+      <c r="D379" t="s">
+        <v>332</v>
+      </c>
+      <c r="E379">
+        <v>500</v>
+      </c>
+      <c r="F379">
+        <v>15915.94</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" t="str">
+        <f t="shared" si="14"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B380" t="str">
+        <f t="shared" si="15"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C380" s="1">
+        <v>45754</v>
+      </c>
+      <c r="D380" t="s">
+        <v>219</v>
+      </c>
+      <c r="E380">
+        <v>50</v>
+      </c>
+      <c r="F380">
+        <v>15965.94</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" t="str">
+        <f t="shared" si="14"/>
+        <v>Inscrição</v>
+      </c>
+      <c r="B381" t="str">
+        <f t="shared" si="15"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C381" s="1">
+        <v>45754</v>
+      </c>
+      <c r="D381" t="s">
+        <v>333</v>
+      </c>
+      <c r="E381">
+        <v>280</v>
+      </c>
+      <c r="F381">
+        <v>16245.94</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" t="str">
+        <f t="shared" si="14"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B382" t="str">
+        <f t="shared" si="15"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C382" s="1">
+        <v>45754</v>
+      </c>
+      <c r="D382" t="s">
+        <v>334</v>
+      </c>
+      <c r="E382">
+        <v>130</v>
+      </c>
+      <c r="F382">
+        <v>16375.94</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" t="str">
+        <f t="shared" si="14"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B383" t="str">
+        <f t="shared" si="15"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C383" s="1">
+        <v>45754</v>
+      </c>
+      <c r="D383" t="s">
+        <v>335</v>
+      </c>
+      <c r="E383">
+        <v>70</v>
+      </c>
+      <c r="F383">
+        <v>16445.939999999999</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384" t="str">
+        <f t="shared" si="14"/>
+        <v>Inscrição</v>
+      </c>
+      <c r="B384" t="str">
+        <f t="shared" si="15"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C384" s="1">
+        <v>45754</v>
+      </c>
+      <c r="D384" t="s">
+        <v>336</v>
+      </c>
+      <c r="E384">
+        <v>250</v>
+      </c>
+      <c r="F384">
+        <v>16695.939999999999</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385" t="str">
+        <f t="shared" si="14"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B385" t="str">
+        <f t="shared" si="15"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C385" s="1">
+        <v>45754</v>
+      </c>
+      <c r="D385" t="s">
+        <v>102</v>
+      </c>
+      <c r="E385">
+        <v>10</v>
+      </c>
+      <c r="F385">
+        <v>16705.939999999999</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386" t="str">
+        <f t="shared" si="14"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B386" t="str">
+        <f t="shared" si="15"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C386" s="1">
+        <v>45754</v>
+      </c>
+      <c r="D386" t="s">
+        <v>337</v>
+      </c>
+      <c r="E386">
+        <v>10</v>
+      </c>
+      <c r="F386">
+        <v>16715.939999999999</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387" t="str">
+        <f t="shared" si="14"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B387" t="str">
+        <f t="shared" si="15"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C387" s="1">
+        <v>45754</v>
+      </c>
+      <c r="D387" t="s">
+        <v>338</v>
+      </c>
+      <c r="E387">
+        <v>130</v>
+      </c>
+      <c r="F387">
+        <v>16845.939999999999</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388" t="str">
+        <f t="shared" si="14"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B388" t="str">
+        <f t="shared" si="15"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C388" s="1">
+        <v>45754</v>
+      </c>
+      <c r="D388" t="s">
+        <v>339</v>
+      </c>
+      <c r="E388">
+        <v>10</v>
+      </c>
+      <c r="F388">
+        <v>16855.939999999999</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389" t="str">
+        <f t="shared" si="14"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B389" t="str">
+        <f t="shared" si="15"/>
+        <v>Saída</v>
+      </c>
+      <c r="C389" s="1">
+        <v>45755</v>
+      </c>
+      <c r="D389" t="s">
+        <v>142</v>
+      </c>
+      <c r="E389">
+        <v>-6000</v>
+      </c>
+      <c r="F389">
+        <v>10855.94</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390" t="str">
+        <f t="shared" si="14"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B390" t="str">
+        <f t="shared" si="15"/>
+        <v>Saída</v>
+      </c>
+      <c r="C390" s="1">
+        <v>45755</v>
+      </c>
+      <c r="D390" t="s">
+        <v>340</v>
+      </c>
+      <c r="E390">
+        <v>-4000</v>
+      </c>
+      <c r="F390">
+        <v>6855.94</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391" t="str">
+        <f t="shared" si="14"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B391" t="str">
+        <f t="shared" si="15"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C391" s="1">
+        <v>45755</v>
+      </c>
+      <c r="D391" t="s">
+        <v>341</v>
+      </c>
+      <c r="E391">
+        <v>20</v>
+      </c>
+      <c r="F391">
+        <v>6875.94</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392" t="str">
+        <f t="shared" si="14"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B392" t="str">
+        <f t="shared" si="15"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C392" s="1">
+        <v>45755</v>
+      </c>
+      <c r="D392" t="s">
+        <v>342</v>
+      </c>
+      <c r="E392">
+        <v>180</v>
+      </c>
+      <c r="F392">
+        <v>7055.94</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393" t="str">
+        <f t="shared" si="14"/>
+        <v>Inscrição</v>
+      </c>
+      <c r="B393" t="str">
+        <f t="shared" si="15"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C393" s="1">
+        <v>45755</v>
+      </c>
+      <c r="D393" t="s">
+        <v>343</v>
+      </c>
+      <c r="E393">
+        <v>250</v>
+      </c>
+      <c r="F393">
+        <v>7305.94</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394" t="str">
+        <f t="shared" si="14"/>
+        <v>Inscrição</v>
+      </c>
+      <c r="B394" t="str">
+        <f t="shared" si="15"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C394" s="1">
+        <v>45755</v>
+      </c>
+      <c r="D394" t="s">
+        <v>344</v>
+      </c>
+      <c r="E394">
+        <v>280</v>
+      </c>
+      <c r="F394">
+        <v>7585.94</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395" t="str">
+        <f t="shared" si="14"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B395" t="str">
+        <f t="shared" si="15"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C395" s="1">
+        <v>45755</v>
+      </c>
+      <c r="D395" t="s">
+        <v>345</v>
+      </c>
+      <c r="E395">
+        <v>180</v>
+      </c>
+      <c r="F395">
+        <v>7765.94</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396" t="str">
+        <f t="shared" si="14"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B396" t="str">
+        <f t="shared" si="15"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C396" s="1">
+        <v>45755</v>
+      </c>
+      <c r="D396" t="s">
+        <v>126</v>
+      </c>
+      <c r="E396">
+        <v>140</v>
+      </c>
+      <c r="F396">
+        <v>7905.94</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C397" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:F326" xr:uid="{B63638E3-371E-451B-B0B2-3C09A3D60615}"/>
@@ -9216,7 +10835,7 @@
   <dimension ref="C2:P23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9226,7 +10845,7 @@
     <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="7" width="0.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
@@ -9256,7 +10875,7 @@
       </c>
     </row>
     <row r="4" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="44" t="s">
         <v>227</v>
       </c>
       <c r="D4" s="31" t="s">
@@ -9264,7 +10883,7 @@
       </c>
       <c r="E4" s="15">
         <f>SUMIFS(Planilha1!E:E,Planilha1!B:B,"Entrada")</f>
-        <v>13803.76</v>
+        <v>20646.47</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -9277,21 +10896,21 @@
       </c>
       <c r="J4" s="10">
         <f>SUMIFS(Planilha1!$E:$E,Planilha1!$B:$B,"Entrada",Planilha1!$A:$A,J$3)-I4</f>
-        <v>5899.22</v>
+        <v>7934.22</v>
       </c>
       <c r="K4" s="10">
         <f>SUMIFS(Planilha1!$E:$E,Planilha1!$B:$B,"Entrada",Planilha1!$A:$A,K$3)</f>
-        <v>6525.53</v>
+        <v>11333.24</v>
       </c>
     </row>
     <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="43"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="32" t="s">
         <v>231</v>
       </c>
       <c r="E5" s="16">
         <f>SUMIFS(Planilha1!E:E,Planilha1!B:B,"Saída")</f>
-        <v>-3000.53</v>
+        <v>-13140.53</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -9301,7 +10920,7 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="3:16" s="3" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="43"/>
+      <c r="C6" s="45"/>
       <c r="E6" s="17"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -9311,13 +10930,13 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="3:16" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="44"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="33" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="18">
         <f>SUM(E4:E6)</f>
-        <v>10803.23</v>
+        <v>7505.9400000000005</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -9330,10 +10949,10 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="E9" s="35"/>
+      <c r="E9" s="37"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9346,7 +10965,7 @@
       <c r="P10" s="34"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="38" t="s">
         <v>235</v>
       </c>
       <c r="D11" s="26" t="s">
@@ -9354,39 +10973,39 @@
       </c>
       <c r="E11" s="19">
         <f>J4+K4</f>
-        <v>12424.75</v>
+        <v>19267.46</v>
       </c>
     </row>
     <row r="12" spans="3:16" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="37"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="27"/>
       <c r="E12" s="20"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C13" s="37"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="27" t="s">
         <v>239</v>
       </c>
       <c r="E13" s="20">
         <f>INT(E11/250)</f>
-        <v>49</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="38"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E14" s="21">
         <f>E13*180</f>
-        <v>8820</v>
+        <v>13860</v>
       </c>
     </row>
     <row r="15" spans="3:16" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="22"/>
     </row>
     <row r="16" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="41" t="s">
         <v>232</v>
       </c>
       <c r="D16" s="26" t="s">
@@ -9394,11 +11013,11 @@
       </c>
       <c r="E16" s="19">
         <f>E11-E14</f>
-        <v>3604.75</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="40"/>
+        <v>5407.4599999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="42"/>
       <c r="D17" s="27" t="s">
         <v>226</v>
       </c>
@@ -9407,8 +11026,8 @@
         <v>487.78</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="40"/>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="42"/>
       <c r="D18" s="27" t="s">
         <v>229</v>
       </c>
@@ -9417,41 +11036,45 @@
         <v>889.51</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="40"/>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="42"/>
       <c r="D19" s="29" t="s">
         <v>241</v>
       </c>
       <c r="E19" s="23">
         <f>SUM(E16:E18)</f>
-        <v>4982.04</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="40"/>
+        <v>6784.7499999999991</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="42"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="40"/>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="42"/>
       <c r="D21" s="27" t="s">
-        <v>242</v>
+        <v>346</v>
       </c>
       <c r="E21" s="20">
-        <f>E5</f>
-        <v>-3000.53</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="41"/>
+        <f>E5+10000</f>
+        <v>-3140.5300000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="43"/>
       <c r="D22" s="30" t="s">
         <v>240</v>
       </c>
       <c r="E22" s="25">
         <f>E19+E21</f>
-        <v>1981.5099999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>3644.2199999999984</v>
+      </c>
+      <c r="I22" s="36">
+        <f>(E14+E22)/180</f>
+        <v>97.245666666666651</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D9:E9"/>

--- a/Caixa Acamp.xlsx
+++ b/Caixa Acamp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e35e6eceb5702d4e/IEBI/Sistemas/AcampBlackTeen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="485" documentId="8_{30BAC8CF-0EA2-4BFF-AB06-4B74287ED76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AC78FFD-733E-481E-8B67-57B51A7D8A03}"/>
+  <xr:revisionPtr revIDLastSave="499" documentId="8_{30BAC8CF-0EA2-4BFF-AB06-4B74287ED76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37A5E3DA-23F0-4F4A-AEA6-C3D90F6043EF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{9715924B-C3A6-4F0A-BD95-27BF535064DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9715924B-C3A6-4F0A-BD95-27BF535064DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="390">
   <si>
     <t>Valor</t>
   </si>
@@ -1161,6 +1161,57 @@
   </si>
   <si>
     <t>Ônibus 2</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :18236120-Nicolly Amorim Alexandre"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :00360305-EDUARDA RICARDA SILVA BORBUREMA"</t>
+  </si>
+  <si>
+    <t>Pix enviado: "Cp :18236120-Beatriz Hevelin Cavalcanti Silva"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :00000000-JACY SANTANA ALVES"</t>
+  </si>
+  <si>
+    <t>Pix enviado: "Cp :00360305-Elisangela de Oliveira"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :18189547-ERINALDO INACIO DA SILVA"</t>
+  </si>
+  <si>
+    <t>Pix enviado: "Cp :18236120-Ronieles Silva de Lima"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :09464032-Raquel Marques Braz"</t>
+  </si>
+  <si>
+    <t>Pix enviado: "Cp :35571249-Clementino E Oliveira Lima Servicos LTDA"</t>
+  </si>
+  <si>
+    <t>Pix enviado: "Cp :18236120-Ana Cecilia Vieira Dantas Alves"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :18236120-Michelle Christinne de Menezes Vieira"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :22896431-Guilherme Rodrigues Da Nobrega"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :00000000-THATIANY MONTEIRO COELHO"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :00000000-ANA PAULA DIAS T MELO"</t>
+  </si>
+  <si>
+    <t>Pix recebido: "Cp :00000000-ANTONIO DIAS CARDOSO FH"</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Errado</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1649,22 +1700,31 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
@@ -1683,26 +1743,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2047,11 +2097,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63638E3-371E-451B-B0B2-3C09A3D60615}">
-  <dimension ref="A2:G400"/>
+  <dimension ref="A2:G420"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2368,7 +2416,7 @@
       <c r="C15" s="1">
         <v>45732</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="31" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="2">
@@ -2393,7 +2441,7 @@
       <c r="C16" s="1">
         <v>45732</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="31" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="2">
@@ -2418,7 +2466,7 @@
       <c r="C17" s="1">
         <v>45732</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="31" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="2">
@@ -2466,7 +2514,7 @@
       <c r="C19" s="1">
         <v>45732</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="31" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="2">
@@ -2491,7 +2539,7 @@
       <c r="C20" s="1">
         <v>45732</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="33" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="2">
@@ -2539,7 +2587,7 @@
       <c r="C22" s="1">
         <v>45732</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="31" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="2">
@@ -2633,7 +2681,7 @@
       <c r="C26" s="1">
         <v>45732</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="2">
@@ -2658,7 +2706,7 @@
       <c r="C27" s="1">
         <v>45732</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="31" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="2">
@@ -2683,7 +2731,7 @@
       <c r="C28" s="1">
         <v>45732</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="2">
@@ -2708,7 +2756,7 @@
       <c r="C29" s="1">
         <v>45732</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="33" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="2">
@@ -2733,7 +2781,7 @@
       <c r="C30" s="1">
         <v>45732</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="31" t="s">
         <v>21</v>
       </c>
       <c r="E30" s="2">
@@ -2757,7 +2805,7 @@
       <c r="C31" s="1">
         <v>45732</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="31" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="2">
@@ -2805,7 +2853,7 @@
       <c r="C33" s="1">
         <v>45732</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="31" t="s">
         <v>26</v>
       </c>
       <c r="E33" s="2">
@@ -2853,7 +2901,7 @@
       <c r="C35" s="1">
         <v>45732</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="31" t="s">
         <v>28</v>
       </c>
       <c r="E35" s="2">
@@ -2947,7 +2995,7 @@
       <c r="C39" s="1">
         <v>45733</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E39" s="2">
@@ -2972,7 +3020,7 @@
       <c r="C40" s="1">
         <v>45733</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="33" t="s">
         <v>33</v>
       </c>
       <c r="E40" s="2">
@@ -3043,7 +3091,7 @@
       <c r="C43" s="1">
         <v>45733</v>
       </c>
-      <c r="D43" s="34" t="s">
+      <c r="D43" s="31" t="s">
         <v>36</v>
       </c>
       <c r="E43" s="2">
@@ -3344,7 +3392,7 @@
       <c r="C56" s="1">
         <v>45733</v>
       </c>
-      <c r="D56" s="34" t="s">
+      <c r="D56" s="31" t="s">
         <v>48</v>
       </c>
       <c r="E56" s="2">
@@ -3462,7 +3510,7 @@
       <c r="C61" s="1">
         <v>45733</v>
       </c>
-      <c r="D61" s="34" t="s">
+      <c r="D61" s="31" t="s">
         <v>53</v>
       </c>
       <c r="E61" s="2">
@@ -3510,7 +3558,7 @@
       <c r="C63" s="1">
         <v>45733</v>
       </c>
-      <c r="D63" s="34" t="s">
+      <c r="D63" s="31" t="s">
         <v>54</v>
       </c>
       <c r="E63" s="2">
@@ -3558,7 +3606,7 @@
       <c r="C65" s="1">
         <v>45733</v>
       </c>
-      <c r="D65" s="34" t="s">
+      <c r="D65" s="31" t="s">
         <v>54</v>
       </c>
       <c r="E65" s="2">
@@ -3583,7 +3631,7 @@
       <c r="C66" s="1">
         <v>45733</v>
       </c>
-      <c r="D66" s="34" t="s">
+      <c r="D66" s="31" t="s">
         <v>48</v>
       </c>
       <c r="E66" s="2">
@@ -3631,7 +3679,7 @@
       <c r="C68" s="1">
         <v>45734</v>
       </c>
-      <c r="D68" s="34" t="s">
+      <c r="D68" s="31" t="s">
         <v>57</v>
       </c>
       <c r="E68" s="2">
@@ -3656,7 +3704,7 @@
       <c r="C69" s="1">
         <v>45734</v>
       </c>
-      <c r="D69" s="34" t="s">
+      <c r="D69" s="31" t="s">
         <v>58</v>
       </c>
       <c r="E69" s="2">
@@ -3681,7 +3729,7 @@
       <c r="C70" s="1">
         <v>45734</v>
       </c>
-      <c r="D70" s="34" t="s">
+      <c r="D70" s="31" t="s">
         <v>59</v>
       </c>
       <c r="E70" s="2">
@@ -3706,7 +3754,7 @@
       <c r="C71" s="1">
         <v>45734</v>
       </c>
-      <c r="D71" s="34" t="s">
+      <c r="D71" s="31" t="s">
         <v>60</v>
       </c>
       <c r="E71" s="2">
@@ -3755,7 +3803,7 @@
       <c r="C73" s="1">
         <v>45734</v>
       </c>
-      <c r="D73" s="36" t="s">
+      <c r="D73" s="33" t="s">
         <v>62</v>
       </c>
       <c r="E73" s="2">
@@ -4033,7 +4081,7 @@
       <c r="C85" s="1">
         <v>45735</v>
       </c>
-      <c r="D85" s="34" t="s">
+      <c r="D85" s="31" t="s">
         <v>74</v>
       </c>
       <c r="E85" s="2">
@@ -4219,7 +4267,7 @@
       <c r="C93" s="1">
         <v>45736</v>
       </c>
-      <c r="D93" s="34" t="s">
+      <c r="D93" s="31" t="s">
         <v>81</v>
       </c>
       <c r="E93" s="2">
@@ -4313,7 +4361,7 @@
       <c r="C97" s="1">
         <v>45737</v>
       </c>
-      <c r="D97" s="34" t="s">
+      <c r="D97" s="31" t="s">
         <v>85</v>
       </c>
       <c r="E97" s="2">
@@ -4752,7 +4800,7 @@
       <c r="C116" s="1">
         <v>45737</v>
       </c>
-      <c r="D116" s="39" t="s">
+      <c r="D116" t="s">
         <v>102</v>
       </c>
       <c r="E116" s="2">
@@ -4823,7 +4871,7 @@
       <c r="C119" s="1">
         <v>45737</v>
       </c>
-      <c r="D119" s="38" t="s">
+      <c r="D119" s="35" t="s">
         <v>102</v>
       </c>
       <c r="E119" s="2">
@@ -4892,7 +4940,7 @@
       <c r="C122" s="1">
         <v>45738</v>
       </c>
-      <c r="D122" s="36" t="s">
+      <c r="D122" s="33" t="s">
         <v>107</v>
       </c>
       <c r="E122" s="2">
@@ -4917,7 +4965,7 @@
       <c r="C123" s="1">
         <v>45738</v>
       </c>
-      <c r="D123" s="34" t="s">
+      <c r="D123" s="31" t="s">
         <v>108</v>
       </c>
       <c r="E123" s="2">
@@ -4942,7 +4990,7 @@
       <c r="C124" s="1">
         <v>45738</v>
       </c>
-      <c r="D124" s="36" t="s">
+      <c r="D124" s="33" t="s">
         <v>109</v>
       </c>
       <c r="E124" s="2">
@@ -5199,7 +5247,7 @@
       <c r="C135" s="1">
         <v>45742</v>
       </c>
-      <c r="D135" s="34" t="s">
+      <c r="D135" s="31" t="s">
         <v>119</v>
       </c>
       <c r="E135" s="2">
@@ -5247,7 +5295,7 @@
       <c r="C137" s="1">
         <v>45742</v>
       </c>
-      <c r="D137" s="34" t="s">
+      <c r="D137" s="31" t="s">
         <v>121</v>
       </c>
       <c r="E137" s="2">
@@ -5318,7 +5366,7 @@
       <c r="C140" s="1">
         <v>45742</v>
       </c>
-      <c r="D140" s="34" t="s">
+      <c r="D140" s="31" t="s">
         <v>123</v>
       </c>
       <c r="E140" s="2">
@@ -5343,7 +5391,7 @@
       <c r="C141" s="1">
         <v>45742</v>
       </c>
-      <c r="D141" s="34" t="s">
+      <c r="D141" s="31" t="s">
         <v>124</v>
       </c>
       <c r="E141" s="2">
@@ -5368,7 +5416,7 @@
       <c r="C142" s="1">
         <v>45742</v>
       </c>
-      <c r="D142" s="34" t="s">
+      <c r="D142" s="31" t="s">
         <v>125</v>
       </c>
       <c r="E142" s="2">
@@ -5393,7 +5441,7 @@
       <c r="C143" s="1">
         <v>45742</v>
       </c>
-      <c r="D143" s="34" t="s">
+      <c r="D143" s="31" t="s">
         <v>126</v>
       </c>
       <c r="E143" s="2">
@@ -5418,7 +5466,7 @@
       <c r="C144" s="1">
         <v>45742</v>
       </c>
-      <c r="D144" s="34" t="s">
+      <c r="D144" s="31" t="s">
         <v>126</v>
       </c>
       <c r="E144" s="2">
@@ -5443,7 +5491,7 @@
       <c r="C145" s="1">
         <v>45742</v>
       </c>
-      <c r="D145" s="34" t="s">
+      <c r="D145" s="31" t="s">
         <v>127</v>
       </c>
       <c r="E145" s="2">
@@ -5583,7 +5631,7 @@
       <c r="C151" s="1">
         <v>45743</v>
       </c>
-      <c r="D151" s="36" t="s">
+      <c r="D151" s="33" t="s">
         <v>132</v>
       </c>
       <c r="E151" s="2">
@@ -5608,7 +5656,7 @@
       <c r="C152" s="1">
         <v>45743</v>
       </c>
-      <c r="D152" s="36" t="s">
+      <c r="D152" s="33" t="s">
         <v>133</v>
       </c>
       <c r="E152" s="2">
@@ -5633,7 +5681,7 @@
       <c r="C153" s="1">
         <v>45743</v>
       </c>
-      <c r="D153" s="37" t="s">
+      <c r="D153" s="34" t="s">
         <v>134</v>
       </c>
       <c r="E153" s="2">
@@ -5681,7 +5729,7 @@
       <c r="C155" s="1">
         <v>45743</v>
       </c>
-      <c r="D155" s="37" t="s">
+      <c r="D155" s="34" t="s">
         <v>136</v>
       </c>
       <c r="E155" s="2">
@@ -5875,7 +5923,7 @@
       <c r="F163">
         <v>2501.62</v>
       </c>
-      <c r="G163" s="40" t="s">
+      <c r="G163" s="2" t="s">
         <v>361</v>
       </c>
     </row>
@@ -5914,7 +5962,7 @@
       <c r="C165" s="1">
         <v>45745</v>
       </c>
-      <c r="D165" s="34" t="s">
+      <c r="D165" s="31" t="s">
         <v>62</v>
       </c>
       <c r="E165" s="2">
@@ -5962,7 +6010,7 @@
       <c r="C167" s="1">
         <v>45745</v>
       </c>
-      <c r="D167" s="34" t="s">
+      <c r="D167" s="31" t="s">
         <v>145</v>
       </c>
       <c r="E167" s="2">
@@ -6079,7 +6127,7 @@
       <c r="C172" s="1">
         <v>45745</v>
       </c>
-      <c r="D172" s="34" t="s">
+      <c r="D172" s="31" t="s">
         <v>149</v>
       </c>
       <c r="E172" s="2">
@@ -6104,7 +6152,7 @@
       <c r="C173" s="1">
         <v>45745</v>
       </c>
-      <c r="D173" s="34" t="s">
+      <c r="D173" s="31" t="s">
         <v>131</v>
       </c>
       <c r="E173" s="2">
@@ -6268,7 +6316,7 @@
       <c r="C180" s="1">
         <v>45746</v>
       </c>
-      <c r="D180" s="38" t="s">
+      <c r="D180" s="35" t="s">
         <v>33</v>
       </c>
       <c r="E180" s="2">
@@ -6293,7 +6341,7 @@
       <c r="C181" s="1">
         <v>45746</v>
       </c>
-      <c r="D181" s="34" t="s">
+      <c r="D181" s="31" t="s">
         <v>155</v>
       </c>
       <c r="E181" s="2">
@@ -6318,7 +6366,7 @@
       <c r="C182" s="1">
         <v>45746</v>
       </c>
-      <c r="D182" s="37" t="s">
+      <c r="D182" s="34" t="s">
         <v>156</v>
       </c>
       <c r="E182" s="2">
@@ -6343,7 +6391,7 @@
       <c r="C183" s="1">
         <v>45746</v>
       </c>
-      <c r="D183" s="37" t="s">
+      <c r="D183" s="34" t="s">
         <v>157</v>
       </c>
       <c r="E183" s="2">
@@ -6414,7 +6462,7 @@
       <c r="C186" s="1">
         <v>45747</v>
       </c>
-      <c r="D186" s="34" t="s">
+      <c r="D186" s="31" t="s">
         <v>159</v>
       </c>
       <c r="E186" s="2">
@@ -6577,7 +6625,7 @@
       <c r="C193" s="1">
         <v>45748</v>
       </c>
-      <c r="D193" s="38" t="s">
+      <c r="D193" s="35" t="s">
         <v>165</v>
       </c>
       <c r="E193" s="2">
@@ -7683,7 +7731,7 @@
       <c r="C241" s="1">
         <v>45749</v>
       </c>
-      <c r="D241" s="36" t="s">
+      <c r="D241" s="33" t="s">
         <v>202</v>
       </c>
       <c r="E241" s="2">
@@ -7708,7 +7756,7 @@
       <c r="C242" s="1">
         <v>45749</v>
       </c>
-      <c r="D242" s="35" t="s">
+      <c r="D242" s="32" t="s">
         <v>203</v>
       </c>
       <c r="E242" s="2">
@@ -7963,7 +8011,7 @@
       <c r="C253" s="1">
         <v>45749</v>
       </c>
-      <c r="D253" s="35" t="s">
+      <c r="D253" s="32" t="s">
         <v>209</v>
       </c>
       <c r="E253" s="2">
@@ -8103,7 +8151,7 @@
       <c r="C259" s="1">
         <v>45749</v>
       </c>
-      <c r="D259" s="38" t="s">
+      <c r="D259" s="35" t="s">
         <v>213</v>
       </c>
       <c r="E259" s="2">
@@ -8174,7 +8222,7 @@
       <c r="C262" s="1">
         <v>45749</v>
       </c>
-      <c r="D262" s="36" t="s">
+      <c r="D262" s="33" t="s">
         <v>63</v>
       </c>
       <c r="E262" s="2">
@@ -8199,7 +8247,7 @@
       <c r="C263" s="1">
         <v>45749</v>
       </c>
-      <c r="D263" s="36" t="s">
+      <c r="D263" s="33" t="s">
         <v>216</v>
       </c>
       <c r="E263" s="2">
@@ -8293,7 +8341,7 @@
       <c r="C267" s="1">
         <v>45750</v>
       </c>
-      <c r="D267" s="34" t="s">
+      <c r="D267" s="31" t="s">
         <v>244</v>
       </c>
       <c r="E267" s="2">
@@ -8341,7 +8389,7 @@
       <c r="C269" s="1">
         <v>45750</v>
       </c>
-      <c r="D269" s="36" t="s">
+      <c r="D269" s="33" t="s">
         <v>246</v>
       </c>
       <c r="E269" s="2">
@@ -8366,7 +8414,7 @@
       <c r="C270" s="1">
         <v>45750</v>
       </c>
-      <c r="D270" s="34" t="s">
+      <c r="D270" s="31" t="s">
         <v>247</v>
       </c>
       <c r="E270" s="2">
@@ -8483,7 +8531,7 @@
       <c r="C275" s="1">
         <v>45750</v>
       </c>
-      <c r="D275" s="36" t="s">
+      <c r="D275" s="33" t="s">
         <v>250</v>
       </c>
       <c r="E275" s="2">
@@ -8807,7 +8855,7 @@
       <c r="C289" s="1">
         <v>45750</v>
       </c>
-      <c r="D289" s="34" t="s">
+      <c r="D289" s="31" t="s">
         <v>259</v>
       </c>
       <c r="E289" s="2">
@@ -8832,7 +8880,7 @@
       <c r="C290" s="1">
         <v>45750</v>
       </c>
-      <c r="D290" s="34" t="s">
+      <c r="D290" s="31" t="s">
         <v>260</v>
       </c>
       <c r="E290" s="2">
@@ -8857,7 +8905,7 @@
       <c r="C291" s="1">
         <v>45750</v>
       </c>
-      <c r="D291" s="34" t="s">
+      <c r="D291" s="31" t="s">
         <v>261</v>
       </c>
       <c r="E291" s="2">
@@ -8951,7 +8999,7 @@
       <c r="C295" s="1">
         <v>45750</v>
       </c>
-      <c r="D295" s="34" t="s">
+      <c r="D295" s="31" t="s">
         <v>219</v>
       </c>
       <c r="E295" s="2">
@@ -8999,7 +9047,7 @@
       <c r="C297" s="1">
         <v>45750</v>
       </c>
-      <c r="D297" s="35" t="s">
+      <c r="D297" s="32" t="s">
         <v>221</v>
       </c>
       <c r="E297" s="2">
@@ -9024,7 +9072,7 @@
       <c r="C298" s="1">
         <v>45750</v>
       </c>
-      <c r="D298" s="35" t="s">
+      <c r="D298" s="32" t="s">
         <v>222</v>
       </c>
       <c r="E298" s="2">
@@ -9352,7 +9400,7 @@
       <c r="C312" s="1">
         <v>45751</v>
       </c>
-      <c r="D312" s="34" t="s">
+      <c r="D312" s="31" t="s">
         <v>15</v>
       </c>
       <c r="E312" s="2">
@@ -9377,7 +9425,7 @@
       <c r="C313" s="1">
         <v>45751</v>
       </c>
-      <c r="D313" s="34" t="s">
+      <c r="D313" s="31" t="s">
         <v>261</v>
       </c>
       <c r="E313" s="2">
@@ -9448,7 +9496,7 @@
       <c r="C316" s="1">
         <v>45751</v>
       </c>
-      <c r="D316" s="34" t="s">
+      <c r="D316" s="31" t="s">
         <v>15</v>
       </c>
       <c r="E316" s="2">
@@ -9563,7 +9611,7 @@
       <c r="C321" s="1">
         <v>45751</v>
       </c>
-      <c r="D321" s="34" t="s">
+      <c r="D321" s="31" t="s">
         <v>274</v>
       </c>
       <c r="E321" s="2">
@@ -9657,7 +9705,7 @@
       <c r="C325" s="1">
         <v>45751</v>
       </c>
-      <c r="D325" s="35" t="s">
+      <c r="D325" s="32" t="s">
         <v>278</v>
       </c>
       <c r="E325" s="2">
@@ -9772,7 +9820,7 @@
       <c r="C330" s="1">
         <v>45751</v>
       </c>
-      <c r="D330" s="34" t="s">
+      <c r="D330" s="31" t="s">
         <v>283</v>
       </c>
       <c r="E330" s="2">
@@ -10699,7 +10747,7 @@
       <c r="C372" s="1">
         <v>45753</v>
       </c>
-      <c r="D372" s="34" t="s">
+      <c r="D372" s="31" t="s">
         <v>323</v>
       </c>
       <c r="E372">
@@ -10746,7 +10794,7 @@
       <c r="C374" s="1">
         <v>45753</v>
       </c>
-      <c r="D374" s="34" t="s">
+      <c r="D374" s="31" t="s">
         <v>325</v>
       </c>
       <c r="E374">
@@ -10903,7 +10951,7 @@
       <c r="C381" s="1">
         <v>45754</v>
       </c>
-      <c r="D381" s="34" t="s">
+      <c r="D381" s="31" t="s">
         <v>219</v>
       </c>
       <c r="E381">
@@ -10950,7 +10998,7 @@
       <c r="C383" s="1">
         <v>45754</v>
       </c>
-      <c r="D383" s="37" t="s">
+      <c r="D383" s="34" t="s">
         <v>332</v>
       </c>
       <c r="E383">
@@ -11019,7 +11067,7 @@
       <c r="C386" s="1">
         <v>45754</v>
       </c>
-      <c r="D386" s="34" t="s">
+      <c r="D386" s="31" t="s">
         <v>102</v>
       </c>
       <c r="E386">
@@ -11044,7 +11092,7 @@
       <c r="C387" s="1">
         <v>45754</v>
       </c>
-      <c r="D387" s="34" t="s">
+      <c r="D387" s="31" t="s">
         <v>335</v>
       </c>
       <c r="E387">
@@ -11104,7 +11152,7 @@
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="str">
         <f t="shared" si="14"/>
-        <v>Inscrição</v>
+        <v>Rifa</v>
       </c>
       <c r="B390" t="str">
         <f t="shared" si="15"/>
@@ -11113,14 +11161,14 @@
       <c r="C390" s="1">
         <v>45755</v>
       </c>
-      <c r="D390" s="34" t="s">
-        <v>24</v>
+      <c r="D390" s="57" t="s">
+        <v>373</v>
       </c>
       <c r="E390">
-        <v>490</v>
+        <v>180</v>
       </c>
       <c r="F390">
-        <v>17345.939999999999</v>
+        <v>17035.939999999999</v>
       </c>
       <c r="G390" t="s">
         <v>347</v>
@@ -11129,7 +11177,7 @@
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="str">
         <f t="shared" si="14"/>
-        <v>Rifa</v>
+        <v>Inscrição</v>
       </c>
       <c r="B391" t="str">
         <f t="shared" si="15"/>
@@ -11138,14 +11186,14 @@
       <c r="C391" s="1">
         <v>45755</v>
       </c>
-      <c r="D391" s="34" t="s">
-        <v>345</v>
+      <c r="D391" s="57" t="s">
+        <v>374</v>
       </c>
       <c r="E391">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="F391">
-        <v>17355.939999999999</v>
+        <v>17285.939999999999</v>
       </c>
       <c r="G391" t="s">
         <v>350</v>
@@ -11154,7 +11202,7 @@
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="str">
         <f t="shared" si="14"/>
-        <v>Rifa</v>
+        <v>Inscrição</v>
       </c>
       <c r="B392" t="str">
         <f t="shared" si="15"/>
@@ -11163,14 +11211,14 @@
       <c r="C392" s="1">
         <v>45755</v>
       </c>
-      <c r="D392" s="35" t="s">
-        <v>346</v>
+      <c r="D392" s="31" t="s">
+        <v>24</v>
       </c>
       <c r="E392">
-        <v>150</v>
+        <v>490</v>
       </c>
       <c r="F392">
-        <v>17505.939999999999</v>
+        <v>17775.939999999999</v>
       </c>
       <c r="G392" t="s">
         <v>351</v>
@@ -11182,19 +11230,19 @@
       </c>
       <c r="B393" t="str">
         <f t="shared" si="15"/>
-        <v>Saída</v>
+        <v>Entrada</v>
       </c>
       <c r="C393" s="1">
         <v>45755</v>
       </c>
-      <c r="D393" t="s">
-        <v>142</v>
+      <c r="D393" s="31" t="s">
+        <v>345</v>
       </c>
       <c r="E393">
-        <v>-6000</v>
+        <v>10</v>
       </c>
       <c r="F393">
-        <v>11505.94</v>
+        <v>17785.939999999999</v>
       </c>
       <c r="G393" t="s">
         <v>360</v>
@@ -11206,72 +11254,70 @@
       </c>
       <c r="B394" t="str">
         <f t="shared" si="15"/>
-        <v>Saída</v>
+        <v>Entrada</v>
       </c>
       <c r="C394" s="1">
         <v>45755</v>
       </c>
-      <c r="D394" t="s">
-        <v>338</v>
+      <c r="D394" s="32" t="s">
+        <v>346</v>
       </c>
       <c r="E394">
-        <v>-4000</v>
+        <v>150</v>
       </c>
       <c r="F394">
-        <v>7505.94</v>
+        <v>17935.939999999999</v>
       </c>
       <c r="G394" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A395" t="str">
-        <f t="shared" si="14"/>
-        <v>Rifa</v>
+      <c r="A395" t="s">
+        <v>388</v>
       </c>
       <c r="B395" t="str">
         <f t="shared" si="15"/>
-        <v>Entrada</v>
+        <v>Saída</v>
       </c>
       <c r="C395" s="1">
         <v>45755</v>
       </c>
       <c r="D395" t="s">
-        <v>339</v>
+        <v>142</v>
       </c>
       <c r="E395">
-        <v>20</v>
+        <v>-6000</v>
       </c>
       <c r="F395">
-        <v>7525.94</v>
+        <v>11935.94</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A396" t="str">
-        <f t="shared" si="14"/>
-        <v>Rifa</v>
+      <c r="A396" t="s">
+        <v>388</v>
       </c>
       <c r="B396" t="str">
         <f t="shared" si="15"/>
-        <v>Entrada</v>
+        <v>Saída</v>
       </c>
       <c r="C396" s="1">
         <v>45755</v>
       </c>
       <c r="D396" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E396">
-        <v>180</v>
+        <v>-4000</v>
       </c>
       <c r="F396">
-        <v>7705.94</v>
+        <v>7935.94</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="str">
         <f t="shared" si="14"/>
-        <v>Inscrição</v>
+        <v>Rifa</v>
       </c>
       <c r="B397" t="str">
         <f t="shared" si="15"/>
@@ -11281,10 +11327,10 @@
         <v>45755</v>
       </c>
       <c r="D397" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E397">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="F397">
         <v>7955.94</v>
@@ -11293,7 +11339,7 @@
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="str">
         <f t="shared" ref="A398:A400" si="16">IF(E398&gt;180,"Inscrição","Rifa")</f>
-        <v>Inscrição</v>
+        <v>Rifa</v>
       </c>
       <c r="B398" t="str">
         <f t="shared" ref="B398:B400" si="17">IF(E398&gt;0,"Entrada","Saída")</f>
@@ -11303,19 +11349,19 @@
         <v>45755</v>
       </c>
       <c r="D398" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E398">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="F398">
-        <v>8235.94</v>
+        <v>8135.94</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="str">
         <f t="shared" si="16"/>
-        <v>Rifa</v>
+        <v>Inscrição</v>
       </c>
       <c r="B399" t="str">
         <f t="shared" si="17"/>
@@ -11325,19 +11371,19 @@
         <v>45755</v>
       </c>
       <c r="D399" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E399">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="F399">
-        <v>8415.94</v>
+        <v>8385.94</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="str">
         <f t="shared" si="16"/>
-        <v>Rifa</v>
+        <v>Inscrição</v>
       </c>
       <c r="B400" t="str">
         <f t="shared" si="17"/>
@@ -11346,17 +11392,452 @@
       <c r="C400" s="1">
         <v>45755</v>
       </c>
-      <c r="D400" s="34" t="s">
-        <v>126</v>
+      <c r="D400" t="s">
+        <v>342</v>
       </c>
       <c r="E400">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="F400">
-        <v>8555.94</v>
+        <v>8665.94</v>
       </c>
       <c r="G400" t="s">
         <v>353</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A401" t="str">
+        <f t="shared" ref="A401:A420" si="18">IF(E401&gt;180,"Inscrição","Rifa")</f>
+        <v>Rifa</v>
+      </c>
+      <c r="B401" t="str">
+        <f t="shared" ref="B401:B420" si="19">IF(E401&gt;0,"Entrada","Saída")</f>
+        <v>Entrada</v>
+      </c>
+      <c r="C401" s="1">
+        <v>45755</v>
+      </c>
+      <c r="D401" t="s">
+        <v>343</v>
+      </c>
+      <c r="E401">
+        <v>180</v>
+      </c>
+      <c r="F401">
+        <v>8845.94</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402" t="str">
+        <f t="shared" si="18"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B402" t="str">
+        <f t="shared" si="19"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C402" s="1">
+        <v>45755</v>
+      </c>
+      <c r="D402" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E402">
+        <v>140</v>
+      </c>
+      <c r="F402">
+        <v>8985.94</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A403" t="str">
+        <f t="shared" si="18"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B403" t="str">
+        <f t="shared" si="19"/>
+        <v>Saída</v>
+      </c>
+      <c r="C403" s="1">
+        <v>45756</v>
+      </c>
+      <c r="D403" t="s">
+        <v>375</v>
+      </c>
+      <c r="E403">
+        <v>-10</v>
+      </c>
+      <c r="F403">
+        <v>8975.94</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404" t="str">
+        <f t="shared" si="18"/>
+        <v>Inscrição</v>
+      </c>
+      <c r="B404" t="str">
+        <f t="shared" si="19"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C404" s="1">
+        <v>45756</v>
+      </c>
+      <c r="D404" t="s">
+        <v>376</v>
+      </c>
+      <c r="E404">
+        <v>250</v>
+      </c>
+      <c r="F404">
+        <v>9225.94</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405" t="str">
+        <f t="shared" si="18"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B405" t="str">
+        <f t="shared" si="19"/>
+        <v>Saída</v>
+      </c>
+      <c r="C405" s="1">
+        <v>45756</v>
+      </c>
+      <c r="D405" t="s">
+        <v>50</v>
+      </c>
+      <c r="E405">
+        <v>-30</v>
+      </c>
+      <c r="F405">
+        <v>9195.94</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406" t="str">
+        <f t="shared" si="18"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B406" t="str">
+        <f t="shared" si="19"/>
+        <v>Saída</v>
+      </c>
+      <c r="C406" s="1">
+        <v>45756</v>
+      </c>
+      <c r="D406" t="s">
+        <v>377</v>
+      </c>
+      <c r="E406">
+        <v>-75</v>
+      </c>
+      <c r="F406">
+        <v>9120.94</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407" t="str">
+        <f t="shared" si="18"/>
+        <v>Inscrição</v>
+      </c>
+      <c r="B407" t="str">
+        <f t="shared" si="19"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C407" s="1">
+        <v>45756</v>
+      </c>
+      <c r="D407" t="s">
+        <v>184</v>
+      </c>
+      <c r="E407">
+        <v>250</v>
+      </c>
+      <c r="F407">
+        <v>9370.94</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408" t="str">
+        <f t="shared" si="18"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B408" t="str">
+        <f t="shared" si="19"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C408" s="1">
+        <v>45756</v>
+      </c>
+      <c r="D408" t="s">
+        <v>378</v>
+      </c>
+      <c r="E408">
+        <v>180</v>
+      </c>
+      <c r="F408">
+        <v>9550.94</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409" t="str">
+        <f t="shared" si="18"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B409" t="str">
+        <f t="shared" si="19"/>
+        <v>Saída</v>
+      </c>
+      <c r="C409" s="1">
+        <v>45756</v>
+      </c>
+      <c r="D409" t="s">
+        <v>379</v>
+      </c>
+      <c r="E409">
+        <v>-300</v>
+      </c>
+      <c r="F409">
+        <v>9250.94</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410" t="str">
+        <f t="shared" si="18"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B410" t="str">
+        <f t="shared" si="19"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C410" s="1">
+        <v>45756</v>
+      </c>
+      <c r="D410" t="s">
+        <v>380</v>
+      </c>
+      <c r="E410">
+        <v>130</v>
+      </c>
+      <c r="F410">
+        <v>9380.94</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>232</v>
+      </c>
+      <c r="B411" t="str">
+        <f t="shared" si="19"/>
+        <v>Saída</v>
+      </c>
+      <c r="C411" s="1">
+        <v>45757</v>
+      </c>
+      <c r="D411" t="s">
+        <v>50</v>
+      </c>
+      <c r="E411">
+        <v>-67.92</v>
+      </c>
+      <c r="F411">
+        <v>9313.02</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>389</v>
+      </c>
+      <c r="B412" t="str">
+        <f t="shared" si="19"/>
+        <v>Saída</v>
+      </c>
+      <c r="C412" s="1">
+        <v>45757</v>
+      </c>
+      <c r="D412" t="s">
+        <v>381</v>
+      </c>
+      <c r="E412">
+        <v>-67.92</v>
+      </c>
+      <c r="F412">
+        <v>9245.1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>232</v>
+      </c>
+      <c r="B413" t="str">
+        <f t="shared" si="19"/>
+        <v>Saída</v>
+      </c>
+      <c r="C413" s="1">
+        <v>45757</v>
+      </c>
+      <c r="D413" t="s">
+        <v>382</v>
+      </c>
+      <c r="E413">
+        <v>-100</v>
+      </c>
+      <c r="F413">
+        <v>9145.1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>232</v>
+      </c>
+      <c r="B414" t="str">
+        <f t="shared" si="19"/>
+        <v>Saída</v>
+      </c>
+      <c r="C414" s="1">
+        <v>45757</v>
+      </c>
+      <c r="D414" t="s">
+        <v>50</v>
+      </c>
+      <c r="E414">
+        <v>-300</v>
+      </c>
+      <c r="F414">
+        <v>8845.1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415" t="str">
+        <f t="shared" si="18"/>
+        <v>Inscrição</v>
+      </c>
+      <c r="B415" t="str">
+        <f t="shared" si="19"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C415" s="1">
+        <v>45757</v>
+      </c>
+      <c r="D415" t="s">
+        <v>383</v>
+      </c>
+      <c r="E415">
+        <v>250</v>
+      </c>
+      <c r="F415">
+        <v>9095.1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416" t="str">
+        <f t="shared" si="18"/>
+        <v>Inscrição</v>
+      </c>
+      <c r="B416" t="str">
+        <f t="shared" si="19"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C416" s="1">
+        <v>45757</v>
+      </c>
+      <c r="D416" t="s">
+        <v>384</v>
+      </c>
+      <c r="E416">
+        <v>200</v>
+      </c>
+      <c r="F416">
+        <v>9295.1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A417" t="str">
+        <f t="shared" si="18"/>
+        <v>Inscrição</v>
+      </c>
+      <c r="B417" t="str">
+        <f t="shared" si="19"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C417" s="1">
+        <v>45757</v>
+      </c>
+      <c r="D417" t="s">
+        <v>385</v>
+      </c>
+      <c r="E417">
+        <v>250</v>
+      </c>
+      <c r="F417">
+        <v>9545.1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>235</v>
+      </c>
+      <c r="B418" t="str">
+        <f t="shared" si="19"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C418" s="1">
+        <v>45757</v>
+      </c>
+      <c r="D418" t="s">
+        <v>127</v>
+      </c>
+      <c r="E418">
+        <v>180</v>
+      </c>
+      <c r="F418">
+        <v>9725.1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A419" t="str">
+        <f t="shared" si="18"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B419" t="str">
+        <f t="shared" si="19"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C419" s="1">
+        <v>45757</v>
+      </c>
+      <c r="D419" t="s">
+        <v>386</v>
+      </c>
+      <c r="E419">
+        <v>10</v>
+      </c>
+      <c r="F419">
+        <v>9735.1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A420" t="str">
+        <f t="shared" si="18"/>
+        <v>Rifa</v>
+      </c>
+      <c r="B420" t="str">
+        <f t="shared" si="19"/>
+        <v>Entrada</v>
+      </c>
+      <c r="C420" s="1">
+        <v>45757</v>
+      </c>
+      <c r="D420" t="s">
+        <v>387</v>
+      </c>
+      <c r="E420">
+        <v>20</v>
+      </c>
+      <c r="F420">
+        <v>9755.1</v>
       </c>
     </row>
   </sheetData>
@@ -11369,8 +11850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9426FA6-F670-420E-80B7-496536CEEFF3}">
   <dimension ref="C2:P23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11410,7 +11891,7 @@
       </c>
     </row>
     <row r="4" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="54" t="s">
         <v>227</v>
       </c>
       <c r="D4" s="25" t="s">
@@ -11418,7 +11899,7 @@
       </c>
       <c r="E4" s="15">
         <f>SUMIFS(Planilha1!E:E,Planilha1!B:B,"Entrada")</f>
-        <v>21296.47</v>
+        <v>23446.47</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -11431,21 +11912,21 @@
       </c>
       <c r="J4" s="10">
         <f>SUMIFS(Planilha1!$E:$E,Planilha1!$B:$B,"Entrada",Planilha1!$A:$A,J$3)-I4</f>
-        <v>8094.22</v>
+        <v>8454.2199999999993</v>
       </c>
       <c r="K4" s="10">
         <f>SUMIFS(Planilha1!$E:$E,Planilha1!$B:$B,"Entrada",Planilha1!$A:$A,K$3)</f>
-        <v>11823.24</v>
+        <v>13453.24</v>
       </c>
     </row>
     <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="32"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="26" t="s">
         <v>231</v>
       </c>
       <c r="E5" s="16">
         <f>SUMIFS(Planilha1!E:E,Planilha1!B:B,"Saída")</f>
-        <v>-14440.53</v>
+        <v>-15391.37</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -11455,7 +11936,7 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="3:16" s="3" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="32"/>
+      <c r="C6" s="55"/>
       <c r="E6" s="17"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -11465,13 +11946,13 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="3:16" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="33"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="27" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="18">
         <f>SUM(E4:E6)</f>
-        <v>6855.9400000000005</v>
+        <v>8055.1</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -11484,77 +11965,77 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="E9" s="48"/>
+      <c r="E9" s="47"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="37" t="s">
         <v>0</v>
       </c>
       <c r="P10" s="28"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="38" t="s">
         <v>237</v>
       </c>
       <c r="E11" s="19">
         <f>J4+K4</f>
-        <v>19917.46</v>
+        <v>21907.46</v>
       </c>
     </row>
     <row r="12" spans="3:16" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="42"/>
-      <c r="D12" s="52"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="20"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C13" s="42"/>
-      <c r="D13" s="52" t="s">
+      <c r="C13" s="49"/>
+      <c r="D13" s="39" t="s">
         <v>239</v>
       </c>
       <c r="E13" s="20">
         <f>INT(E11/250)</f>
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="43"/>
-      <c r="D14" s="53" t="s">
+      <c r="C14" s="50"/>
+      <c r="D14" s="40" t="s">
         <v>242</v>
       </c>
       <c r="E14" s="21">
         <f>E13*180</f>
-        <v>14220</v>
+        <v>15660</v>
       </c>
     </row>
     <row r="15" spans="3:16" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
     </row>
     <row r="16" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="38" t="s">
         <v>238</v>
       </c>
       <c r="E16" s="19">
         <f>E11-E14</f>
-        <v>5697.4599999999991</v>
+        <v>6247.4599999999991</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="45"/>
-      <c r="D17" s="52" t="s">
+      <c r="C17" s="52"/>
+      <c r="D17" s="39" t="s">
         <v>226</v>
       </c>
       <c r="E17" s="20">
@@ -11563,8 +12044,8 @@
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="45"/>
-      <c r="D18" s="52" t="s">
+      <c r="C18" s="52"/>
+      <c r="D18" s="39" t="s">
         <v>229</v>
       </c>
       <c r="E18" s="20">
@@ -11573,38 +12054,38 @@
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="45"/>
-      <c r="D19" s="55" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="42" t="s">
         <v>241</v>
       </c>
       <c r="E19" s="22">
         <f>SUM(E16:E18)</f>
-        <v>7074.7499999999991</v>
+        <v>7624.7499999999991</v>
       </c>
     </row>
     <row r="20" spans="3:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="45"/>
-      <c r="D20" s="54"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="23"/>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="45"/>
-      <c r="D21" s="52" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="39" t="s">
         <v>344</v>
       </c>
       <c r="E21" s="20">
         <f>E5+10000</f>
-        <v>-4440.5300000000007</v>
+        <v>-5391.3700000000008</v>
       </c>
     </row>
     <row r="22" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="46"/>
-      <c r="D22" s="56" t="s">
+      <c r="C22" s="53"/>
+      <c r="D22" s="43" t="s">
         <v>240</v>
       </c>
       <c r="E22" s="24">
         <f>E19+E21</f>
-        <v>2634.2199999999984</v>
+        <v>2233.3799999999983</v>
       </c>
       <c r="I22" s="30"/>
     </row>
@@ -22855,11 +23336,11 @@
       </c>
       <c r="B388" t="str">
         <f>Planilha1!D390</f>
-        <v>Pix recebido: "Cp :35571249-SALOMAO BERNARDO DA SILVA"</v>
+        <v>Pix recebido: "Cp :18236120-Nicolly Amorim Alexandre"</v>
       </c>
       <c r="C388" s="2">
         <f>Planilha1!E390*IF(Planilha1!E390&lt;0,-1,1)</f>
-        <v>490</v>
+        <v>180</v>
       </c>
       <c r="D388" t="str">
         <f>Planilha1!B390</f>
@@ -22867,7 +23348,7 @@
       </c>
       <c r="E388" t="str">
         <f>Planilha1!A390</f>
-        <v>Inscrição</v>
+        <v>Rifa</v>
       </c>
       <c r="F388" t="s">
         <v>369</v>
@@ -22884,11 +23365,11 @@
       </c>
       <c r="B389" t="str">
         <f>Planilha1!D391</f>
-        <v>Pix recebido: "Cp :60746948-JOSE BARBOSA DOS SANTOS"</v>
+        <v>Pix recebido: "Cp :00360305-EDUARDA RICARDA SILVA BORBUREMA"</v>
       </c>
       <c r="C389" s="2">
         <f>Planilha1!E391*IF(Planilha1!E391&lt;0,-1,1)</f>
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="D389" t="str">
         <f>Planilha1!B391</f>
@@ -22896,7 +23377,7 @@
       </c>
       <c r="E389" t="str">
         <f>Planilha1!A391</f>
-        <v>Rifa</v>
+        <v>Inscrição</v>
       </c>
       <c r="F389" t="s">
         <v>369</v>
@@ -22913,11 +23394,11 @@
       </c>
       <c r="B390" t="str">
         <f>Planilha1!D392</f>
-        <v>Pix recebido: "Cp :00360305-FARUSKA LEITE MATIAS DE ARAUJO"</v>
+        <v>Pix recebido: "Cp :35571249-SALOMAO BERNARDO DA SILVA"</v>
       </c>
       <c r="C390" s="2">
         <f>Planilha1!E392*IF(Planilha1!E392&lt;0,-1,1)</f>
-        <v>150</v>
+        <v>490</v>
       </c>
       <c r="D390" t="str">
         <f>Planilha1!B392</f>
@@ -22925,7 +23406,7 @@
       </c>
       <c r="E390" t="str">
         <f>Planilha1!A392</f>
-        <v>Rifa</v>
+        <v>Inscrição</v>
       </c>
       <c r="F390" t="s">
         <v>369</v>
@@ -22942,15 +23423,15 @@
       </c>
       <c r="B391" t="str">
         <f>Planilha1!D393</f>
-        <v>Pix enviado: "Cp :18236120-Marcielle Aparecida Santos Morais Crizostomo"</v>
+        <v>Pix recebido: "Cp :60746948-JOSE BARBOSA DOS SANTOS"</v>
       </c>
       <c r="C391" s="2">
         <f>Planilha1!E393*IF(Planilha1!E393&lt;0,-1,1)</f>
-        <v>6000</v>
+        <v>10</v>
       </c>
       <c r="D391" t="str">
         <f>Planilha1!B393</f>
-        <v>Saída</v>
+        <v>Entrada</v>
       </c>
       <c r="E391" t="str">
         <f>Planilha1!A393</f>
@@ -22971,15 +23452,15 @@
       </c>
       <c r="B392" t="str">
         <f>Planilha1!D394</f>
-        <v>Pix enviado: "Cp :60746948-Valquiria de Amorim Rodrigues Uchoa"</v>
+        <v>Pix recebido: "Cp :00360305-FARUSKA LEITE MATIAS DE ARAUJO"</v>
       </c>
       <c r="C392" s="2">
         <f>Planilha1!E394*IF(Planilha1!E394&lt;0,-1,1)</f>
-        <v>4000</v>
+        <v>150</v>
       </c>
       <c r="D392" t="str">
         <f>Planilha1!B394</f>
-        <v>Saída</v>
+        <v>Entrada</v>
       </c>
       <c r="E392" t="str">
         <f>Planilha1!A394</f>
@@ -23000,19 +23481,19 @@
       </c>
       <c r="B393" t="str">
         <f>Planilha1!D395</f>
-        <v>Pix recebido: "Cp :00000000-ANA CLARA PORTELA TAVARES"</v>
+        <v>Pix enviado: "Cp :18236120-Marcielle Aparecida Santos Morais Crizostomo"</v>
       </c>
       <c r="C393" s="2">
         <f>Planilha1!E395*IF(Planilha1!E395&lt;0,-1,1)</f>
-        <v>20</v>
+        <v>6000</v>
       </c>
       <c r="D393" t="str">
         <f>Planilha1!B395</f>
-        <v>Entrada</v>
+        <v>Saída</v>
       </c>
       <c r="E393" t="str">
         <f>Planilha1!A395</f>
-        <v>Rifa</v>
+        <v>Local</v>
       </c>
       <c r="F393" t="s">
         <v>369</v>
@@ -23029,19 +23510,19 @@
       </c>
       <c r="B394" t="str">
         <f>Planilha1!D396</f>
-        <v>Pix recebido: "Cp :18236120-Joyce Monteiro"</v>
+        <v>Pix enviado: "Cp :60746948-Valquiria de Amorim Rodrigues Uchoa"</v>
       </c>
       <c r="C394" s="2">
         <f>Planilha1!E396*IF(Planilha1!E396&lt;0,-1,1)</f>
-        <v>180</v>
+        <v>4000</v>
       </c>
       <c r="D394" t="str">
         <f>Planilha1!B396</f>
-        <v>Entrada</v>
+        <v>Saída</v>
       </c>
       <c r="E394" t="str">
         <f>Planilha1!A396</f>
-        <v>Rifa</v>
+        <v>Local</v>
       </c>
       <c r="F394" t="s">
         <v>369</v>
@@ -23058,11 +23539,11 @@
       </c>
       <c r="B395" t="str">
         <f>Planilha1!D397</f>
-        <v>Pix recebido: "Cp :00360305-JOHN KELSON FLORENCIO DOS SANTOS"</v>
+        <v>Pix recebido: "Cp :00000000-ANA CLARA PORTELA TAVARES"</v>
       </c>
       <c r="C395" s="2">
         <f>Planilha1!E397*IF(Planilha1!E397&lt;0,-1,1)</f>
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="D395" t="str">
         <f>Planilha1!B397</f>
@@ -23070,7 +23551,7 @@
       </c>
       <c r="E395" t="str">
         <f>Planilha1!A397</f>
-        <v>Inscrição</v>
+        <v>Rifa</v>
       </c>
       <c r="F395" t="s">
         <v>369</v>
@@ -23087,11 +23568,11 @@
       </c>
       <c r="B396" t="str">
         <f>Planilha1!D398</f>
-        <v>Pix recebido: "Cp :10573521-Kellybeth Fidelis de Araujo Onofre"</v>
+        <v>Pix recebido: "Cp :18236120-Joyce Monteiro"</v>
       </c>
       <c r="C396" s="2">
         <f>Planilha1!E398*IF(Planilha1!E398&lt;0,-1,1)</f>
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="D396" t="str">
         <f>Planilha1!B398</f>
@@ -23099,7 +23580,7 @@
       </c>
       <c r="E396" t="str">
         <f>Planilha1!A398</f>
-        <v>Inscrição</v>
+        <v>Rifa</v>
       </c>
       <c r="F396" t="s">
         <v>369</v>
@@ -23116,11 +23597,11 @@
       </c>
       <c r="B397" t="str">
         <f>Planilha1!D399</f>
-        <v>Pix recebido: "Cp :00360305-PEDRO HENRIQUE LEANDRO CARNEIRO DE LIMA"</v>
+        <v>Pix recebido: "Cp :00360305-JOHN KELSON FLORENCIO DOS SANTOS"</v>
       </c>
       <c r="C397" s="2">
         <f>Planilha1!E399*IF(Planilha1!E399&lt;0,-1,1)</f>
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="D397" t="str">
         <f>Planilha1!B399</f>
@@ -23128,7 +23609,7 @@
       </c>
       <c r="E397" t="str">
         <f>Planilha1!A399</f>
-        <v>Rifa</v>
+        <v>Inscrição</v>
       </c>
       <c r="F397" t="s">
         <v>369</v>
@@ -23145,11 +23626,11 @@
       </c>
       <c r="B398" t="str">
         <f>Planilha1!D400</f>
-        <v>Pix recebido: "Cp :00000208-DEBORAH LIMA DE OLIVEIRA"</v>
+        <v>Pix recebido: "Cp :10573521-Kellybeth Fidelis de Araujo Onofre"</v>
       </c>
       <c r="C398" s="2">
         <f>Planilha1!E400*IF(Planilha1!E400&lt;0,-1,1)</f>
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="D398" t="str">
         <f>Planilha1!B400</f>
@@ -23157,7 +23638,7 @@
       </c>
       <c r="E398" t="str">
         <f>Planilha1!A400</f>
-        <v>Rifa</v>
+        <v>Inscrição</v>
       </c>
       <c r="F398" t="s">
         <v>369</v>
